--- a/documents/Katrina's Worksheet _ Nepal Digam Village Rotary Foundation Budget - $35,000 - For Santa rosa Rotary Club.xlsx
+++ b/documents/Katrina's Worksheet _ Nepal Digam Village Rotary Foundation Budget - $35,000 - For Santa rosa Rotary Club.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="5060" tabRatio="886" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="5060" tabRatio="886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hard Costs " sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Leadership" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -613,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -976,6 +975,12 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,9 +1300,9 @@
   </sheetPr>
   <dimension ref="A1:W1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1712,7 @@
       <c r="C14" s="42">
         <v>1000</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="155" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="45"/>
@@ -2002,7 +2007,7 @@
       <c r="C23" s="36">
         <v>250</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="57" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="38"/>
@@ -2132,7 +2137,7 @@
       <c r="C27" s="36">
         <v>1400</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="57" t="s">
         <v>125</v>
       </c>
       <c r="E27" s="38"/>
@@ -2295,7 +2300,7 @@
       <c r="C32" s="36">
         <v>790</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="154" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="45"/>
@@ -27916,7 +27921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46374BE1-24A9-4AFF-A2ED-CFD04FF8150E}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
